--- a/biology/Médecine/Burkholderia_cepacia/Burkholderia_cepacia.xlsx
+++ b/biology/Médecine/Burkholderia_cepacia/Burkholderia_cepacia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Burkholderia cepacia appartient à un groupe de bactéries Gram-négatif composé d'au moins huit autres espèces différentes B. multivorans, B. cenocepacia, B. vietnamiensis, B. stabilis, B. ambifaria, B. dolosa, B. anthina, et B. pyrrocinia[1].
-Burkholderia cepacia (anciennement Pseudomonas cepacia) est un agent pathogène pour l'humain provoquant le plus souvent des pneumonies chez les patients immunodéprimés ou ayant une maladie pulmonaire sous-jacente (telle que la mucoviscidose[2]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Burkholderia cepacia appartient à un groupe de bactéries Gram-négatif composé d'au moins huit autres espèces différentes B. multivorans, B. cenocepacia, B. vietnamiensis, B. stabilis, B. ambifaria, B. dolosa, B. anthina, et B. pyrrocinia.
+Burkholderia cepacia (anciennement Pseudomonas cepacia) est un agent pathogène pour l'humain provoquant le plus souvent des pneumonies chez les patients immunodéprimés ou ayant une maladie pulmonaire sous-jacente (telle que la mucoviscidose).
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Pathogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Burkholderia cepacia est généralement retrouvée dans l'eau et les sols et peut survivre pendant des périodes prolongées dans des environnements humides. Une contamination inter-humaine a été décrite, obligeant les structures hospitalières et de soins à prendre des mesures d'isolement des patients mucoviscidosiques porteur de la bactérie.
-Le diagnostic d'infection à Burkholderia s'effectue par sa mise en évidence en culture d'expectoration. Les Burkholderia sont des bactéries naturellement résistantes à de nombreux antibiotiques dont les aminoglycosides et la polymyxine B[3]. La bactérie serait capable de survivre dans la Bétadine (un antiseptique iodé)[4].
-Le traitement nécessite généralement l'utilisation de plusieurs antibiotiques tels que la ceftazidime, la doxycycline, la pipéracilline, le chloramphénicol, et le cotrimoxazole[3] ou d'antimicrobiens ayant fait leur preuve (Lactoferrine, hypothiocyanite[5],[6] ).
+Le diagnostic d'infection à Burkholderia s'effectue par sa mise en évidence en culture d'expectoration. Les Burkholderia sont des bactéries naturellement résistantes à de nombreux antibiotiques dont les aminoglycosides et la polymyxine B. La bactérie serait capable de survivre dans la Bétadine (un antiseptique iodé).
+Le traitement nécessite généralement l'utilisation de plusieurs antibiotiques tels que la ceftazidime, la doxycycline, la pipéracilline, le chloramphénicol, et le cotrimoxazole ou d'antimicrobiens ayant fait leur preuve (Lactoferrine, hypothiocyanite, ).
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Burkholderia cepacia a été découverte par Walter Burkholder en 1949, et décrite pour la première fois comme un pathogène humain dans les années 1950. Dans les années 1980, elle a été reconnue pour la première fois chez les individus atteints de mucoviscidose. B. cepacia possède un génome contenant deux fois plus de matériel génétique qu'Escherichia coli.
-En 2019, cette bactérie a contaminé certains lots de désinfectants hospitaliers, entraînant un rappel de ces produits à l'échelle mondiale et un arrêt temporaire de leur production[7].
+En 2019, cette bactérie a contaminé certains lots de désinfectants hospitaliers, entraînant un rappel de ces produits à l'échelle mondiale et un arrêt temporaire de leur production.
 </t>
         </is>
       </c>
